--- a/Figure_2/Fig.2D_tdTomato_quantification.xlsx
+++ b/Figure_2/Fig.2D_tdTomato_quantification.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ICH_DBC_Ivanovitch_Lab\Manuscript\Raw Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ICH_DBC_Ivanovitch_Lab\Manuscript\2025_EMBO Journal\Source Data\Fig. 2 Source Data\2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A11A2825-347F-4EEA-B0CB-1BE48AE943C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFBB5A1-987C-4250-8532-EC36D5D473D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47745" yWindow="-14970" windowWidth="18780" windowHeight="13035" xr2:uid="{AB55AC42-4594-41E9-9AFE-92210B75253B}"/>
+    <workbookView xWindow="48750" yWindow="-14205" windowWidth="12255" windowHeight="13200" activeTab="1" xr2:uid="{AB55AC42-4594-41E9-9AFE-92210B75253B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure2D" sheetId="2" r:id="rId1"/>
+    <sheet name="Figure2D_raw" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Figure2D_raw!$A$1:$E$85</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="35">
   <si>
     <t>Embryo</t>
   </si>
@@ -56,9 +60,6 @@
     <t>JSQH348</t>
   </si>
   <si>
-    <t>E6.5</t>
-  </si>
-  <si>
     <t>Embryo 1</t>
   </si>
   <si>
@@ -68,9 +69,6 @@
     <t>Endocardium</t>
   </si>
   <si>
-    <t>Somatic</t>
-  </si>
-  <si>
     <t>Endoderm</t>
   </si>
   <si>
@@ -80,9 +78,6 @@
     <t>Embryo 3</t>
   </si>
   <si>
-    <t>E7</t>
-  </si>
-  <si>
     <t>JSQH369</t>
   </si>
   <si>
@@ -101,9 +96,6 @@
     <t>JSQH375</t>
   </si>
   <si>
-    <t>E7.5</t>
-  </si>
-  <si>
     <t>JSQH410</t>
   </si>
   <si>
@@ -111,6 +103,48 @@
   </si>
   <si>
     <t>JSQH409</t>
+  </si>
+  <si>
+    <t>Fig 2D - Quantification of tdTomato+ cells</t>
+  </si>
+  <si>
+    <t>E6+7h Myocardium (n=3), 118 ± 63.7</t>
+  </si>
+  <si>
+    <t>E6+7h Endocardium (n=3), 4.33 ± 6.66</t>
+  </si>
+  <si>
+    <t>E6+7h Pericardium (n=3), 13.7 ± 2.89</t>
+  </si>
+  <si>
+    <t>E6+21h Myocardium (n=10), 98.4 ± 73.0</t>
+  </si>
+  <si>
+    <t>E6+21h Endocardium (n=10), 11.7 ± 12.9</t>
+  </si>
+  <si>
+    <t>E6+21h Pericardium (n=10), 19.8 ± 16.5</t>
+  </si>
+  <si>
+    <t>E7+7h Myocardium (n=8), 4 ± 5.55</t>
+  </si>
+  <si>
+    <t>E7+7h Endocardium (n=8), 0.375 ± 0.744</t>
+  </si>
+  <si>
+    <t>E7+7h Pericardium (n=8), 0.625 ± 1.19</t>
+  </si>
+  <si>
+    <t>E6+7h</t>
+  </si>
+  <si>
+    <t>E6+21h</t>
+  </si>
+  <si>
+    <t>E7+7h</t>
+  </si>
+  <si>
+    <t>Pericardium</t>
   </si>
 </sst>
 </file>
@@ -487,16 +521,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B92BBB5-BA96-4A4E-B1DD-14E5C200387C}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A24D52-02A4-405B-BFF1-232261FCF6BB}">
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -521,16 +618,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -538,16 +635,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -555,16 +652,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -572,16 +669,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -589,16 +686,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -606,16 +703,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -623,16 +720,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -640,16 +737,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -657,16 +754,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -674,16 +771,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -691,16 +788,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -708,1243 +805,1244 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C27">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48">
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>191</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
         <v>7</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
       <c r="E54" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>12</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
         <v>7</v>
       </c>
-      <c r="C66">
-        <v>10</v>
-      </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68">
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C71">
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E72" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C73">
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C74">
         <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E76" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C77">
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
         <v>7</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
       <c r="E78" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80">
         <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
         <v>7</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
       <c r="E82" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E84" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85">
         <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E85" xr:uid="{38A24D52-02A4-405B-BFF1-232261FCF6BB}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
